--- a/demo/images/test.xlsx
+++ b/demo/images/test.xlsx
@@ -531,14 +531,20 @@
           <t>1000T</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>1027.6875</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1027.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -555,33 +561,33 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.00%</t>
+          <t xml:space="preserve"> 103.65</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 152.69%</t>
+          <t xml:space="preserve"> 103.65</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 100.02%</t>
+          <t xml:space="preserve"> 108.37</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>250.9442</t>
+          <t>204.4256</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22.6688</t>
         </is>
       </c>
     </row>
@@ -601,14 +607,20 @@
           <t>8577T</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>8598.625</v>
-      </c>
-      <c r="E3" t="n">
-        <v>8.125</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.6875</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7882.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.62</t>
+        </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -621,37 +633,37 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>137588</v>
+        <v>137621</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  60.60%</t>
+          <t xml:space="preserve">  94.03</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  98.68%</t>
+          <t xml:space="preserve">  88.98</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  92.19%</t>
+          <t xml:space="preserve">  93.48</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1,230.7772</t>
+          <t>1,203.2637</t>
         </is>
       </c>
       <c r="O3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>113.7816</t>
+          <t>158.6735</t>
         </is>
       </c>
     </row>
@@ -671,14 +683,20 @@
           <t>1000T</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>998.9375</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  998.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -695,33 +713,33 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 105.22%</t>
+          <t xml:space="preserve">   0.00</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  86.90%</t>
+          <t xml:space="preserve"> 124.10</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  74.53%</t>
+          <t xml:space="preserve">  93.33</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>136.7683</t>
+          <t>158.8540</t>
         </is>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>22.7536</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -741,14 +759,20 @@
           <t>3082.4375T</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>3082.5</v>
-      </c>
-      <c r="E5" t="n">
-        <v>363.5</v>
-      </c>
-      <c r="F5" t="n">
-        <v>10.5</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3082.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -765,33 +789,33 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 101.63%</t>
+          <t xml:space="preserve">  68.76</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t xml:space="preserve">  94.44%</t>
+          <t xml:space="preserve"> 102.80</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t xml:space="preserve">  95.46%</t>
+          <t xml:space="preserve">  98.72</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>478.6974</t>
+          <t>453.9645</t>
         </is>
       </c>
       <c r="O5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>68.2615</t>
+          <t>45.3357</t>
         </is>
       </c>
     </row>
@@ -811,14 +835,20 @@
           <t>1.5P</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>1535.53125</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1535.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -835,25 +865,25 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  68.08%</t>
+          <t xml:space="preserve">  69.44</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 124.49%</t>
+          <t xml:space="preserve"> 103.14</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  96.77%</t>
+          <t xml:space="preserve"> 102.88</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>273.4923</t>
+          <t>227.0801</t>
         </is>
       </c>
       <c r="O6" t="n">
@@ -861,7 +891,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>22.7512</t>
+          <t>22.6649</t>
         </is>
       </c>
     </row>
@@ -881,14 +911,20 @@
           <t>1000T</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>1008.625</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1008.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -905,33 +941,33 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 103.65%</t>
+          <t xml:space="preserve">   0.00</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t xml:space="preserve">  86.37%</t>
+          <t xml:space="preserve">  35.07</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 108.47%</t>
+          <t xml:space="preserve">  77.90</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>113.9748</t>
+          <t>45.4439</t>
         </is>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>22.7600</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -951,14 +987,20 @@
           <t>2P</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>2049</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2049.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -975,17 +1017,17 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 153.19%</t>
+          <t xml:space="preserve">  51.82</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 110.20%</t>
+          <t xml:space="preserve"> 128.79</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 106.62%</t>
+          <t xml:space="preserve"> 101.26</t>
         </is>
       </c>
       <c r="M8" t="n">
@@ -993,15 +1035,15 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>364.5851</t>
+          <t>363.3692</t>
         </is>
       </c>
       <c r="O8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>68.2656</t>
+          <t>22.6633</t>
         </is>
       </c>
     </row>
@@ -1021,14 +1063,20 @@
           <t>3062T</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>3062.25</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3062.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1045,33 +1093,33 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t xml:space="preserve">  68.08%</t>
+          <t xml:space="preserve"> 103.65</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 113.39%</t>
+          <t xml:space="preserve">  51.71</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t xml:space="preserve">  96.73%</t>
+          <t xml:space="preserve">  94.86</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>478.3971</t>
+          <t>249.7666</t>
         </is>
       </c>
       <c r="O9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>45.5159</t>
+          <t>68.0048</t>
         </is>
       </c>
     </row>
@@ -1091,14 +1139,20 @@
           <t>1P</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>1035.40625</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1035.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1115,33 +1169,33 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 100.64%</t>
+          <t xml:space="preserve">   0.00</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t xml:space="preserve">  50.32%</t>
+          <t xml:space="preserve"> 153.19</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t xml:space="preserve">  95.51%</t>
+          <t xml:space="preserve"> 104.13</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>91.1088</t>
+          <t>227.1464</t>
         </is>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>22.7580</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1161,18 +1215,24 @@
           <t>1000T</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>502.9375</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  931.31</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   53.21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>增速无要求</t>
+          <t>已暂停</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1181,37 +1241,37 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>8646</v>
+        <v>14901</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.00%</t>
+          <t xml:space="preserve"> 113.84</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 105.22%</t>
+          <t xml:space="preserve"> 113.62</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 114.18%</t>
+          <t xml:space="preserve"> 123.60</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>68.3803</t>
+          <t>113.5040</t>
         </is>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22.6671</t>
         </is>
       </c>
     </row>
@@ -1231,14 +1291,20 @@
           <t>1000T</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>891.5625</v>
-      </c>
-      <c r="E12" t="n">
-        <v>21</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  907.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1251,29 +1317,29 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>14265</v>
+        <v>14513</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.00%</t>
+          <t xml:space="preserve">   0.00</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 119.06%</t>
+          <t xml:space="preserve">  39.23</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t xml:space="preserve">  93.70%</t>
+          <t xml:space="preserve">  78.75</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>159.7240</t>
+          <t>45.4005</t>
         </is>
       </c>
       <c r="O12" t="n">
@@ -1301,14 +1367,20 @@
           <t>1329T</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>1329.25</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1329.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1325,25 +1397,25 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 157.83%</t>
+          <t xml:space="preserve"> 159.64</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 104.78%</t>
+          <t xml:space="preserve">  79.82</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 108.82%</t>
+          <t xml:space="preserve">  94.13</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>227.8890</t>
+          <t>136.1022</t>
         </is>
       </c>
       <c r="O13" t="n">
@@ -1351,7 +1423,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>45.5033</t>
+          <t>45.3397</t>
         </is>
       </c>
     </row>
@@ -1371,14 +1443,20 @@
           <t>2P</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>1542.25</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1542.25</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1395,33 +1473,33 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 136.17%</t>
+          <t xml:space="preserve"> 206.27</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t xml:space="preserve">  67.53%</t>
+          <t xml:space="preserve">  91.68</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 100.65%</t>
+          <t xml:space="preserve"> 102.00</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>205.1300</t>
+          <t>181.5505</t>
         </is>
       </c>
       <c r="O14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>45.5105</t>
+          <t>68.0091</t>
         </is>
       </c>
     </row>
@@ -1441,14 +1519,20 @@
           <t>3P</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>3072.5625</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3072.56</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1465,33 +1549,33 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t xml:space="preserve">  34.04%</t>
+          <t xml:space="preserve"> 172.75</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t xml:space="preserve">  79.10%</t>
+          <t xml:space="preserve"> 125.86</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t xml:space="preserve">  95.88%</t>
+          <t xml:space="preserve">  96.49</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>364.6624</t>
+          <t>612.9365</t>
         </is>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>22.7523</t>
+          <t>113.3274</t>
         </is>
       </c>
     </row>
@@ -1511,14 +1595,20 @@
           <t>3328T</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>3328.25</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3328.25</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1535,33 +1625,33 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  62.85%</t>
+          <t xml:space="preserve">   0.00</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  88.56%</t>
+          <t xml:space="preserve"> 116.39</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  95.16%</t>
+          <t xml:space="preserve">  96.48</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>478.6086</t>
+          <t>544.8230</t>
         </is>
       </c>
       <c r="O16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>45.5093</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1581,14 +1671,20 @@
           <t>1P</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>1105</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1105.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1605,25 +1701,25 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t xml:space="preserve">  95.13%</t>
+          <t xml:space="preserve">  96.45</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t xml:space="preserve">  78.85%</t>
+          <t xml:space="preserve"> 191.36</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t xml:space="preserve">  80.27%</t>
+          <t xml:space="preserve"> 120.46</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>113.9940</t>
+          <t>295.2570</t>
         </is>
       </c>
       <c r="O17" t="n">
@@ -1631,7 +1727,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>22.7514</t>
+          <t>22.6714</t>
         </is>
       </c>
     </row>
@@ -1651,14 +1747,20 @@
           <t>3P</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>3072.03125</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3072.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1675,33 +1777,33 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 170.21%</t>
+          <t xml:space="preserve">   0.00</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 107.30%</t>
+          <t xml:space="preserve">  80.13</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 100.88%</t>
+          <t xml:space="preserve"> 105.68</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>501.2994</t>
+          <t>386.0178</t>
         </is>
       </c>
       <c r="O18" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>113.7769</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1721,14 +1823,20 @@
           <t>5438T</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>4933.34375</v>
-      </c>
-      <c r="E19" t="n">
-        <v>193.03125</v>
-      </c>
-      <c r="F19" t="n">
-        <v>21.34375</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5226.78</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   37.33</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   14.75</t>
+        </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1741,37 +1849,37 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>159125</v>
+        <v>167527</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t xml:space="preserve">  63.52%</t>
+          <t xml:space="preserve">  20.25</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t xml:space="preserve">  67.95%</t>
+          <t xml:space="preserve">  89.08</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t xml:space="preserve">  80.77%</t>
+          <t xml:space="preserve">  78.62</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>501.2906</t>
+          <t>681.1379</t>
         </is>
       </c>
       <c r="O19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>68.2557</t>
+          <t>22.6624</t>
         </is>
       </c>
     </row>
@@ -1791,14 +1899,20 @@
           <t>1.5P</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>1535.875</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1535.88</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1815,25 +1929,25 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t xml:space="preserve">  68.08%</t>
+          <t xml:space="preserve">  69.44</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 102.01%</t>
+          <t xml:space="preserve"> 149.20</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 103.77%</t>
+          <t xml:space="preserve"> 115.04</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>205.0486</t>
+          <t>295.1702</t>
         </is>
       </c>
       <c r="O20" t="n">
@@ -1841,7 +1955,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>22.7587</t>
+          <t>22.6724</t>
         </is>
       </c>
     </row>
@@ -1861,14 +1975,20 @@
           <t>3420T</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>3276.21875</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3276.22</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1885,33 +2005,33 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t xml:space="preserve">  95.57%</t>
+          <t xml:space="preserve">  64.60</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 132.32%</t>
+          <t xml:space="preserve"> 123.34</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 101.30%</t>
+          <t xml:space="preserve"> 110.24</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>683.7384</t>
+          <t>590.2750</t>
         </is>
       </c>
       <c r="O21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>68.2662</t>
+          <t>45.3248</t>
         </is>
       </c>
     </row>
@@ -1931,14 +2051,20 @@
           <t>1.5P</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>1533.78125</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1533.78</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1955,17 +2081,17 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t xml:space="preserve">  68.08%</t>
+          <t xml:space="preserve">  69.44</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t xml:space="preserve">  90.34%</t>
+          <t xml:space="preserve">  91.91</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t xml:space="preserve">  78.14%</t>
+          <t xml:space="preserve">  79.06</t>
         </is>
       </c>
       <c r="M22" t="n">
@@ -1973,7 +2099,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>182.4258</t>
+          <t>181.6697</t>
         </is>
       </c>
       <c r="O22" t="n">
@@ -1981,7 +2107,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>22.7599</t>
+          <t>22.6683</t>
         </is>
       </c>
     </row>
@@ -2001,14 +2127,20 @@
           <t>1000T</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>143</v>
-      </c>
-      <c r="E23" t="n">
-        <v>4.9375</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.71875</v>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  147.88</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.71</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.75</t>
+        </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -2021,29 +2153,29 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>4578</v>
+        <v>4751</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.00%</t>
+          <t xml:space="preserve">   0.00</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 257.20%</t>
+          <t xml:space="preserve">   0.00</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 166.29%</t>
+          <t xml:space="preserve">  79.82</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>45.5928</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O23" t="n">
@@ -2071,14 +2203,20 @@
           <t>3P</t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v>2920.9375</v>
-      </c>
-      <c r="E24" t="n">
-        <v>75.1875</v>
-      </c>
-      <c r="F24" t="n">
-        <v>11.0625</v>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2933.22</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1.73</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1.75</t>
+        </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2091,37 +2229,37 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>93478</v>
+        <v>93896</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t xml:space="preserve">  71.59%</t>
+          <t xml:space="preserve"> 108.51</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t xml:space="preserve">  71.87%</t>
+          <t xml:space="preserve"> 114.07</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 107.40%</t>
+          <t xml:space="preserve"> 105.40</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>296.2175</t>
+          <t>522.2159</t>
         </is>
       </c>
       <c r="O24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>45.5156</t>
+          <t>67.9992</t>
         </is>
       </c>
     </row>
@@ -2141,14 +2279,20 @@
           <t>2621T</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>2621.15625</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2621.16</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2165,25 +2309,25 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 119.73%</t>
+          <t xml:space="preserve"> 121.12</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t xml:space="preserve">  92.67%</t>
+          <t xml:space="preserve"> 147.42</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 106.13%</t>
+          <t xml:space="preserve"> 115.71</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>364.6118</t>
+          <t>567.7795</t>
         </is>
       </c>
       <c r="O25" t="n">
@@ -2191,7 +2335,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>68.2639</t>
+          <t>68.0071</t>
         </is>
       </c>
     </row>
@@ -2211,18 +2355,24 @@
           <t>1024T</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>1024.09375</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1024.09</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5.03</t>
+        </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>已暂停</t>
+          <t>增速无要求</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2231,21 +2381,21 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>32771</v>
+        <v>32937</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 102.12%</t>
+          <t xml:space="preserve">   0.00</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  85.10%</t>
+          <t xml:space="preserve"> 103.65</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 103.39%</t>
+          <t xml:space="preserve"> 104.85</t>
         </is>
       </c>
       <c r="M26" t="n">
@@ -2253,15 +2403,15 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>136.7167</t>
+          <t>136.1816</t>
         </is>
       </c>
       <c r="O26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>22.7577</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2281,14 +2431,20 @@
           <t>1274T</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>1279.96875</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1279.97</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2305,17 +2461,17 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 163.40%</t>
+          <t xml:space="preserve">   0.00</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 108.93%</t>
+          <t xml:space="preserve">  82.67</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t xml:space="preserve">  99.42%</t>
+          <t xml:space="preserve"> 111.76</t>
         </is>
       </c>
       <c r="M27" t="n">
@@ -2323,15 +2479,15 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>227.8678</t>
+          <t>227.1997</t>
         </is>
       </c>
       <c r="O27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>45.5083</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2351,14 +2507,20 @@
           <t>1P</t>
         </is>
       </c>
-      <c r="D28" t="n">
-        <v>1024.8125</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1024.81</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2375,17 +2537,17 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 204.25%</t>
+          <t xml:space="preserve">   0.00</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 119.14%</t>
+          <t xml:space="preserve"> 138.20</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t xml:space="preserve">  76.21%</t>
+          <t xml:space="preserve">  94.84</t>
         </is>
       </c>
       <c r="M28" t="n">
@@ -2393,15 +2555,15 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>182.2733</t>
+          <t>181.6867</t>
         </is>
       </c>
       <c r="O28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>45.5085</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2421,14 +2583,20 @@
           <t>3P</t>
         </is>
       </c>
-      <c r="D29" t="n">
-        <v>3075.96875</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3075.97</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2445,33 +2613,33 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 101.63%</t>
+          <t xml:space="preserve">  69.10</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t xml:space="preserve">  67.61%</t>
+          <t xml:space="preserve">  57.16</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t xml:space="preserve">  85.69%</t>
+          <t xml:space="preserve">  69.57</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>341.8370</t>
+          <t>249.7116</t>
         </is>
       </c>
       <c r="O29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>68.2638</t>
+          <t>45.3345</t>
         </is>
       </c>
     </row>
@@ -2491,14 +2659,20 @@
           <t>2P</t>
         </is>
       </c>
-      <c r="D30" t="n">
-        <v>2048.4375</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2048.44</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2515,33 +2689,33 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.00%</t>
+          <t xml:space="preserve"> 155.47</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t xml:space="preserve">  67.71%</t>
+          <t xml:space="preserve">  86.05</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t xml:space="preserve">  84.22%</t>
+          <t xml:space="preserve">  80.10</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>205.2273</t>
+          <t>295.1055</t>
         </is>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>67.9965</t>
         </is>
       </c>
     </row>
@@ -2561,14 +2735,20 @@
           <t>1601.63T</t>
         </is>
       </c>
-      <c r="D31" t="n">
-        <v>1602.0625</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1602.06</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2585,33 +2765,33 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t xml:space="preserve">  65.51%</t>
+          <t xml:space="preserve"> 132.28</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t xml:space="preserve">  75.82%</t>
+          <t xml:space="preserve"> 121.04</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t xml:space="preserve">  92.84%</t>
+          <t xml:space="preserve"> 109.37</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>205.2051</t>
+          <t>317.8417</t>
         </is>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>22.7523</t>
+          <t>45.3388</t>
         </is>
       </c>
     </row>
@@ -2631,14 +2811,20 @@
           <t>1024T</t>
         </is>
       </c>
-      <c r="D32" t="n">
-        <v>1024.125</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1024.12</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2655,25 +2841,25 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.00%</t>
+          <t xml:space="preserve">   0.00</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t xml:space="preserve">  85.10%</t>
+          <t xml:space="preserve"> 103.65</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t xml:space="preserve">  79.53%</t>
+          <t xml:space="preserve">  83.92</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>113.9438</t>
+          <t>136.2032</t>
         </is>
       </c>
       <c r="O32" t="n">
@@ -2693,26 +2879,32 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>f0417918</t>
+          <t>f0109606</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>482T</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>492.53125</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
+          <t>2P</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1394.31</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   71.89</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   75.38</t>
+        </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>已暂停</t>
+          <t>增速无要求</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2721,37 +2913,37 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>15761</v>
+        <v>46824</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.00%</t>
+          <t xml:space="preserve">  76.31</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 105.22%</t>
+          <t xml:space="preserve">  74.98</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t xml:space="preserve">  93.27%</t>
+          <t xml:space="preserve">  65.66</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>68.4333</t>
+          <t>136.2498</t>
         </is>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22.6695</t>
         </is>
       </c>
     </row>
@@ -2763,65 +2955,71 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>f0227567</t>
+          <t>f0417918</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>4P</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>4096.125</v>
-      </c>
-      <c r="E34" t="n">
+          <t>482T</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  492.53</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>已暂停</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>32GiB</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>15761</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   0.00</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 108.51</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  87.98</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>90.8715</t>
+        </is>
+      </c>
+      <c r="O34" t="n">
         <v>0</v>
       </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>已暂停</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>64GiB</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
-        <v>65538</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 127.19%</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 105.67%</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  87.66%</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>34</v>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>775.0839</t>
-        </is>
-      </c>
-      <c r="O34" t="n">
-        <v>5</v>
-      </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>113.7720</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2833,7 +3031,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>f0417767</t>
+          <t>f0227567</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2841,14 +3039,20 @@
           <t>4P</t>
         </is>
       </c>
-      <c r="D35" t="n">
-        <v>4270.9375</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4096.12</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2857,33 +3061,33 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>32GiB</t>
+          <t>64GiB</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>136670</v>
+        <v>65538</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  97.81%</t>
+          <t xml:space="preserve"> 103.65</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  56.91%</t>
+          <t xml:space="preserve"> 124.52</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  80.68%</t>
+          <t xml:space="preserve">  99.13</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>432.8706</t>
+          <t>703.7074</t>
         </is>
       </c>
       <c r="O35" t="n">
@@ -2891,7 +3095,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>91.0302</t>
+          <t>90.6784</t>
         </is>
       </c>
     </row>
@@ -2903,22 +3107,28 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>f0151453</t>
+          <t>f0417767</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>3172T</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>3172.4375</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
+          <t>4P</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4270.94</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2927,72 +3137,78 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>64GiB</t>
+          <t>32GiB</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>50759</v>
+        <v>136670</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  98.74%</t>
+          <t xml:space="preserve">  49.60</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 158.48%</t>
+          <t xml:space="preserve">  70.02</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 106.88%</t>
+          <t xml:space="preserve">  74.81</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>729.2762</t>
+          <t>454.0399</t>
         </is>
       </c>
       <c r="O36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>68.2628</t>
+          <t>45.3326</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>嘉兴</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>f0151498</t>
+          <t>f0151453</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1200T</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>998.125</v>
-      </c>
-      <c r="E37" t="n">
-        <v>61.3125</v>
-      </c>
-      <c r="F37" t="n">
-        <v>8.5625</v>
+          <t>3172T</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3172.44</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>增速无要求</t>
+          <t>已暂停</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -3001,107 +3217,113 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>16001</v>
+        <v>50759</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.00%</t>
+          <t xml:space="preserve"> 133.55</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  90.15%</t>
+          <t xml:space="preserve">  88.82</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  94.24%</t>
+          <t xml:space="preserve"> 109.08</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>136.8206</t>
+          <t>431.0821</t>
         </is>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>90.6660</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>f023198</t>
+          <t>f0151498</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>8267T</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>8276.8125</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.03125</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.03125</v>
+          <t>1200T</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1059.44</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8.80</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8.75</t>
+        </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>已暂停</t>
+          <t>增速无要求</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>32GiB</t>
+          <t>64GiB</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>264858</v>
+        <v>17076</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t xml:space="preserve">  88.22%</t>
+          <t xml:space="preserve">   0.00</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t xml:space="preserve">  94.55%</t>
+          <t xml:space="preserve">  85.12</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t xml:space="preserve">  91.08%</t>
+          <t xml:space="preserve">  99.19</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>1,230.6476</t>
+          <t>136.2500</t>
         </is>
       </c>
       <c r="O38" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>159.2830</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3113,22 +3335,28 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>f017193</t>
+          <t>f023198</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>4.2P</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>4299.0625</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
+          <t>8267T</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8276.78</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -3141,37 +3369,37 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>137570</v>
+        <v>264858</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  48.56%</t>
+          <t xml:space="preserve"> 140.68</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  92.73%</t>
+          <t xml:space="preserve">  97.58</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  81.52%</t>
+          <t xml:space="preserve">  89.82</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>592.6554</t>
+          <t>1,248.4369</t>
         </is>
       </c>
       <c r="O39" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>45.5058</t>
+          <t>249.3329</t>
         </is>
       </c>
     </row>
@@ -3183,22 +3411,28 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>f0109606</t>
+          <t>f017193</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1000T</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.03125</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
+          <t>4.2P</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4299.06</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -3211,37 +3445,37 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>32000</v>
+        <v>137570</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 105.22%</t>
+          <t xml:space="preserve"> 123.13</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t xml:space="preserve">  69.88%</t>
+          <t xml:space="preserve">  77.71</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t xml:space="preserve">  77.70%</t>
+          <t xml:space="preserve">  87.77</t>
         </is>
       </c>
       <c r="M40" t="n">
+        <v>22</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>522.1717</t>
+        </is>
+      </c>
+      <c r="O40" t="n">
         <v>5</v>
       </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>113.9136</t>
-        </is>
-      </c>
-      <c r="O40" t="n">
-        <v>1</v>
-      </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>22.7524</t>
+          <t>113.3378</t>
         </is>
       </c>
     </row>
@@ -3261,14 +3495,20 @@
           <t>1P</t>
         </is>
       </c>
-      <c r="D41" t="n">
-        <v>1024.53125</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1024.53</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -3285,33 +3525,33 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 306.37%</t>
+          <t xml:space="preserve">   0.00</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t xml:space="preserve">  68.08%</t>
+          <t xml:space="preserve">  51.82</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t xml:space="preserve">  89.50%</t>
+          <t xml:space="preserve">  83.66</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>159.5339</t>
+          <t>68.1355</t>
         </is>
       </c>
       <c r="O41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>68.2646</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3331,14 +3571,20 @@
           <t>1126.63T</t>
         </is>
       </c>
-      <c r="D42" t="n">
-        <v>1126.75</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0</v>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1126.75</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    0.00</t>
+        </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -3355,33 +3601,33 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t xml:space="preserve">  92.59%</t>
+          <t xml:space="preserve"> 190.26</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 154.32%</t>
+          <t xml:space="preserve">  31.28</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 107.03%</t>
+          <t xml:space="preserve">  98.44</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>250.6932</t>
+          <t>90.7754</t>
         </is>
       </c>
       <c r="O42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>22.7500</t>
+          <t>45.3352</t>
         </is>
       </c>
     </row>
